--- a/aaplfinancials.xlsx
+++ b/aaplfinancials.xlsx
@@ -243,7 +243,7 @@
     <t>25.06</t>
   </si>
   <si>
-    <t>2.614</t>
+    <t>2.666</t>
   </si>
   <si>
     <t>4.158</t>
@@ -252,7 +252,7 @@
     <t>0.88</t>
   </si>
   <si>
-    <t>0.0059</t>
+    <t>0.006</t>
   </si>
   <si>
     <t>6.15</t>
@@ -285,19 +285,19 @@
     <t>183.29</t>
   </si>
   <si>
-    <t>23.7</t>
+    <t>24.15</t>
   </si>
   <si>
     <t>6.46</t>
   </si>
   <si>
-    <t>36.06</t>
-  </si>
-  <si>
-    <t>6.47</t>
-  </si>
-  <si>
-    <t>18.79</t>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>6.64</t>
+  </si>
+  <si>
+    <t>19.27</t>
   </si>
   <si>
     <t>1.195</t>
@@ -1092,7 +1092,7 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>905.3692699490662</v>
+        <v>905.3699999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
